--- a/dev_stuffs/palmon.xlsx
+++ b/dev_stuffs/palmon.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tony\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tony\Documents\EX\HMCL\.minecraft\versions\Palmon\dev_stuffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D828E4-96FC-449C-9917-173BA1895FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2BB96A-EB10-445A-BE4A-D241276BAB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15540" yWindow="3795" windowWidth="19860" windowHeight="15435" activeTab="2" xr2:uid="{41DCFB66-B5C9-4783-B084-0F93150E63F9}"/>
+    <workbookView xWindow="14085" yWindow="5310" windowWidth="19860" windowHeight="15435" xr2:uid="{41DCFB66-B5C9-4783-B084-0F93150E63F9}"/>
   </bookViews>
   <sheets>
     <sheet name="材料" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="237">
   <si>
     <t>阶段1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -949,6 +949,22 @@
   </si>
   <si>
     <t xml:space="preserve">https://deepwiki.com/search/traits-modifiersidzhcn_5dc50128-549d-4711-8299-a189cc6d7e40 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海船墓地之回响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鳍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海紫水晶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1501,20 +1517,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3011AA89-2C64-490D-81FC-EEA07D128F36}">
-  <dimension ref="B3:W46"/>
+  <dimension ref="B3:X46"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N54" sqref="N54"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>30</v>
       </c>
@@ -1526,15 +1542,15 @@
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>86</v>
       </c>
@@ -1546,19 +1562,19 @@
       </c>
       <c r="F5" s="17"/>
       <c r="G5" s="16"/>
-      <c r="K5" s="6" t="s">
+      <c r="L5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="6"/>
+      <c r="N5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6" t="s">
+      <c r="O5" s="6"/>
+      <c r="P5" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>33</v>
       </c>
@@ -1570,17 +1586,17 @@
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
-      <c r="O6" s="2" t="s">
+      <c r="O6" s="2"/>
+      <c r="P6" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>33</v>
       </c>
@@ -1596,44 +1612,44 @@
       <c r="G7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="2"/>
+      <c r="N8" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="2"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>70</v>
       </c>
@@ -1644,92 +1660,92 @@
         <v>15</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="K12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E13" s="15" t="s">
         <v>16</v>
       </c>
       <c r="F13" s="16"/>
-      <c r="K13" s="15" t="s">
+      <c r="L13" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="16"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6" t="s">
+      <c r="M13" s="16"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="L14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="M14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="K15" s="2" t="s">
+      <c r="L15" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="L15" s="2"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="2" t="s">
+      <c r="N15" s="2"/>
+      <c r="O15" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E16" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="2" t="s">
+      <c r="N16" s="2"/>
+      <c r="O16" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
       <c r="E17" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="L17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="S18" t="s">
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T18" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
       <c r="E19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>50</v>
       </c>
@@ -1745,18 +1761,20 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="K20" s="2" t="s">
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="L20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S20" s="2"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
       <c r="E21" s="15" t="s">
         <v>37</v>
       </c>
@@ -1765,24 +1783,28 @@
       <c r="H21" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K21" s="15" t="s">
+      <c r="I21" s="6"/>
+      <c r="J21" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="L21" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="L21" s="16"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="13" t="s">
+      <c r="M21" s="16"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="O21" s="12"/>
-      <c r="P21" s="6" t="s">
+      <c r="P21" s="12"/>
+      <c r="Q21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13" t="s">
+      <c r="R21" s="13"/>
+      <c r="S21" s="13" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
       <c r="E22" s="2" t="s">
         <v>83</v>
       </c>
@@ -1793,121 +1815,139 @@
       <c r="H22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="I22" s="2"/>
+      <c r="J22" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="L22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="M22" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2" t="s">
+      <c r="N22" s="2"/>
+      <c r="O22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
-      <c r="R22" s="2" t="s">
+      <c r="R22" s="2"/>
+      <c r="S22" s="2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
       <c r="E23" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="K23" s="2" t="s">
+      <c r="I23" s="2"/>
+      <c r="J23" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="L23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L23" s="2"/>
       <c r="M23" s="2"/>
-      <c r="N23" s="2" t="s">
+      <c r="N23" s="2"/>
+      <c r="O23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S23" s="2"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
       <c r="E24" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="K24" s="2" t="s">
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="L24" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
-    </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S24" s="2"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2" t="s">
+        <v>233</v>
+      </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
-      <c r="N25" s="2" t="s">
+      <c r="N25" s="2"/>
+      <c r="O25" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
-    </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S25" s="2"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
       <c r="E26" s="2" t="s">
         <v>58</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="K26" s="2" t="s">
+      <c r="I26" s="2"/>
+      <c r="J26" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="L26" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="L26" s="2"/>
       <c r="M26" s="2"/>
-      <c r="N26" s="2" t="s">
+      <c r="N26" s="2"/>
+      <c r="O26" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
-    </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="K27" s="2" t="s">
+      <c r="S26" s="2"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="L27" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="L27" s="2"/>
       <c r="M27" s="2"/>
-      <c r="N27" s="2" t="s">
+      <c r="N27" s="2"/>
+      <c r="O27" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2" t="s">
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
-    </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S27" s="2"/>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
       <c r="E29" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>60</v>
       </c>
@@ -1922,10 +1962,9 @@
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="K30" s="2" t="s">
+      <c r="L30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -1933,8 +1972,9 @@
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
-    </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="2"/>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>62</v>
       </c>
@@ -1948,27 +1988,27 @@
       <c r="G31" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K31" s="6" t="s">
+      <c r="L31" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6" t="s">
+      <c r="M31" s="6"/>
+      <c r="N31" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6" t="s">
+      <c r="O31" s="6"/>
+      <c r="P31" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6" t="s">
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6" t="s">
+      <c r="S31" s="6"/>
+      <c r="T31" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>67</v>
       </c>
@@ -1980,7 +2020,6 @@
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -1989,14 +2028,14 @@
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
-    </row>
-    <row r="33" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="T32" s="2"/>
+    </row>
+    <row r="33" spans="5:24" x14ac:dyDescent="0.2">
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -2004,81 +2043,81 @@
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
-      <c r="S33" s="2" t="s">
+      <c r="S33" s="2"/>
+      <c r="T33" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="5:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="5:24" x14ac:dyDescent="0.2">
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
-      <c r="Q34" s="2" t="s">
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="R34" s="2"/>
       <c r="S34" s="2"/>
-    </row>
-    <row r="35" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="T34" s="2"/>
+    </row>
+    <row r="35" spans="5:24" x14ac:dyDescent="0.2">
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-      <c r="K35" s="2"/>
       <c r="L35" s="2"/>
-      <c r="M35" s="2" t="s">
+      <c r="M35" s="2"/>
+      <c r="N35" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2" t="s">
+      <c r="O35" s="2"/>
+      <c r="P35" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
-    </row>
-    <row r="36" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="T35" s="2"/>
+    </row>
+    <row r="36" spans="5:24" x14ac:dyDescent="0.2">
       <c r="E36" s="2" t="s">
         <v>87</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-      <c r="K36" s="2" t="s">
+      <c r="L36" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
-      <c r="S36" s="2" t="s">
+      <c r="S36" s="2"/>
+      <c r="T36" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="5:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="5:24" x14ac:dyDescent="0.2">
       <c r="E38" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="5:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="5:24" x14ac:dyDescent="0.2">
       <c r="E39" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-      <c r="K39" s="2" t="s">
+      <c r="L39" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -2090,8 +2129,9 @@
       <c r="U39" s="2"/>
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
-    </row>
-    <row r="40" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="2"/>
+    </row>
+    <row r="40" spans="5:24" x14ac:dyDescent="0.2">
       <c r="E40" s="6" t="s">
         <v>173</v>
       </c>
@@ -2099,31 +2139,31 @@
       <c r="G40" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="K40" s="6" t="s">
+      <c r="L40" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="L40" s="6"/>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
-      <c r="O40" s="6" t="s">
+      <c r="O40" s="6"/>
+      <c r="P40" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6" t="s">
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="R40" s="6"/>
-      <c r="S40" s="15" t="s">
+      <c r="S40" s="6"/>
+      <c r="T40" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="T40" s="16"/>
-      <c r="U40" s="14"/>
-      <c r="V40" s="15" t="s">
+      <c r="U40" s="16"/>
+      <c r="V40" s="14"/>
+      <c r="W40" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="W40" s="16"/>
-    </row>
-    <row r="41" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="16"/>
+    </row>
+    <row r="41" spans="5:24" x14ac:dyDescent="0.2">
       <c r="E41" s="2" t="s">
         <v>172</v>
       </c>
@@ -2131,152 +2171,152 @@
       <c r="G41" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="K41" s="2" t="s">
+      <c r="L41" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="L41" s="2" t="s">
+      <c r="M41" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="M41" s="2" t="s">
+      <c r="N41" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
-      <c r="Q41" s="2" t="s">
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="R41" s="2"/>
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
-      <c r="W41" s="2"/>
-    </row>
-    <row r="42" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="U41" s="2"/>
+      <c r="X41" s="2"/>
+    </row>
+    <row r="42" spans="5:24" x14ac:dyDescent="0.2">
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
-      <c r="K42" s="2"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
-      <c r="O42" s="2" t="s">
+      <c r="O42" s="2"/>
+      <c r="P42" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
-      <c r="V42" s="2" t="s">
+      <c r="V42" s="2"/>
+      <c r="W42" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="W42" s="2"/>
-    </row>
-    <row r="43" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="2"/>
+    </row>
+    <row r="43" spans="5:24" x14ac:dyDescent="0.2">
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
-      <c r="K43" s="2" t="s">
+      <c r="L43" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="L43" s="2" t="s">
+      <c r="M43" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
-      <c r="P43" s="2"/>
+      <c r="O43" s="2"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
-      <c r="S43" s="2" t="s">
+      <c r="S43" s="2"/>
+      <c r="T43" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="T43" s="2" t="s">
+      <c r="U43" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="U43" s="2"/>
-      <c r="V43" s="2" t="s">
+      <c r="V43" s="2"/>
+      <c r="W43" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="W43" s="2"/>
-    </row>
-    <row r="44" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="2"/>
+    </row>
+    <row r="44" spans="5:24" x14ac:dyDescent="0.2">
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
-      <c r="K44" s="2"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
-      <c r="O44" s="2" t="s">
+      <c r="O44" s="2"/>
+      <c r="P44" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
-      <c r="W44" s="2"/>
-    </row>
-    <row r="45" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="U44" s="2"/>
+      <c r="X44" s="2"/>
+    </row>
+    <row r="45" spans="5:24" x14ac:dyDescent="0.2">
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
-      <c r="K45" s="2" t="s">
+      <c r="L45" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="L45" s="2"/>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2" t="s">
+      <c r="O45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="R45" s="2"/>
-      <c r="T45" s="2"/>
+      <c r="S45" s="2"/>
       <c r="U45" s="2"/>
-      <c r="V45" s="2" t="s">
+      <c r="V45" s="2"/>
+      <c r="W45" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="W45" s="2" t="s">
+      <c r="X45" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="46" spans="5:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="5:24" x14ac:dyDescent="0.2">
       <c r="E46" s="2" t="s">
         <v>227</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
-      <c r="K46" s="2"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
-      <c r="O46" s="2" t="s">
+      <c r="O46" s="2"/>
+      <c r="P46" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
-      <c r="S46" s="2" t="s">
+      <c r="S46" s="2"/>
+      <c r="T46" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="T46" s="2"/>
       <c r="U46" s="2"/>
-      <c r="V46" s="2" t="s">
+      <c r="V46" s="2"/>
+      <c r="W46" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="W46" s="2"/>
+      <c r="X46" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="W40:X40"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="T40:U40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3584,7 +3624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A68B449-6496-4C27-B0D0-42A49C13CB56}">
   <dimension ref="A2:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>

--- a/dev_stuffs/palmon.xlsx
+++ b/dev_stuffs/palmon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tony\Documents\EX\HMCL\.minecraft\versions\Palmon\dev_stuffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2BB96A-EB10-445A-BE4A-D241276BAB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD62A0F6-0696-45F1-817C-3941B006838F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14085" yWindow="5310" windowWidth="19860" windowHeight="15435" xr2:uid="{41DCFB66-B5C9-4783-B084-0F93150E63F9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{41DCFB66-B5C9-4783-B084-0F93150E63F9}"/>
   </bookViews>
   <sheets>
     <sheet name="材料" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="272">
   <si>
     <t>阶段1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,30 +117,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>活木</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泰拉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>赛特斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福鲁伊克斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Beta框架</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -189,10 +169,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>戴斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>稳态戴斯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -221,10 +197,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>魂染钢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>神圣金</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -237,10 +209,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>紫金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>精灵钢</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -343,10 +311,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>耐热</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>腾炎</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -359,18 +323,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>信素</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>末影</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>主要数值基底</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -382,9 +334,6 @@
     <t>硼铁</t>
   </si>
   <si>
-    <t>魔力钢</t>
-  </si>
-  <si>
     <t>热解石墨</t>
   </si>
   <si>
@@ -869,10 +818,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>.-&gt; 绑定节材料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>聚变反应堆外壳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -960,11 +905,207 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>海王</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>深海紫水晶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粒子容器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物质操纵器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等离子射线炮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粒子化腔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯粹的挖掘工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10倍流体容量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/攻击速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程蓄力武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自带词条的材料：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.-&gt;采掘 远程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.-&gt; 绑定节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这些暂时不用管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.-&gt;采掘 盔甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铋*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活木*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活石*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔力钢*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰拉*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛特斯*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福鲁伊克斯*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血曜石*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狱烬下界合金*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马玉灵*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地岩信素*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>震荡流明*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极寒末影*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戴斯*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魂染钢*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谐振水晶*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海王*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钨*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铂*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铱*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活化彩钢*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫金*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐热*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塑料*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>末地石（白石)*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伏打水晶*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化黑曜石*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超致密*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镭光*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反物质*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中子星*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锇荧黑曜石*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化萤石*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1006,7 +1147,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1041,6 +1182,12 @@
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC99FF"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1134,7 +1281,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1198,6 +1345,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - 着色 2" xfId="2" builtinId="34"/>
@@ -1209,6 +1362,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCC99FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1517,525 +1675,584 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3011AA89-2C64-490D-81FC-EEA07D128F36}">
-  <dimension ref="B3:X46"/>
+  <dimension ref="B2:AA58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N52" sqref="N52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="E3" t="s">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="2" t="s">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="L4" s="2" t="s">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="L5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="15" t="s">
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="16"/>
-      <c r="L5" s="6" t="s">
+      <c r="F6" s="17"/>
+      <c r="G6" s="16"/>
+      <c r="L6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6" t="s">
+      <c r="M6" s="6"/>
+      <c r="N6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6" t="s">
+      <c r="O6" s="6"/>
+      <c r="P6" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="L6" s="2" t="s">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="L7" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="P7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="M8" s="2"/>
-      <c r="N8" s="2" t="s">
-        <v>90</v>
-      </c>
+      <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="E9" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
+      <c r="N9" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="E11" t="s">
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="E10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C12" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="2" t="s">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="L12" s="2" t="s">
+      <c r="F13" s="2"/>
+      <c r="L13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="E13" s="15" t="s">
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="E14" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="L13" s="15" t="s">
+      <c r="F14" s="16"/>
+      <c r="L14" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="M13" s="16"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="E14" s="2" t="s">
+      <c r="M14" s="16"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="R14" s="16"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="E15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
       <c r="L15" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="M15" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>241</v>
+      </c>
       <c r="N15" s="2"/>
-      <c r="O15" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="E16" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="L16" s="2"/>
+      <c r="L16" s="2" t="s">
+        <v>242</v>
+      </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="R16" s="2"/>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
       <c r="E17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="T18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="E19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="O17" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="E18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="T19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="L20" s="2" t="s">
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="L21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="E21" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="L21" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="M21" s="16"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="6" t="s">
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="E22" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="16"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="M22" s="16"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="E22" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="E23" s="2" t="s">
-        <v>84</v>
-      </c>
+      <c r="R22" s="13"/>
+      <c r="S22" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="16"/>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2" t="s">
-        <v>235</v>
+      <c r="H23" s="2" t="s">
+        <v>252</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2" t="s">
-        <v>49</v>
+        <v>253</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="S23" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="V23" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.2">
       <c r="E24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>250</v>
+      </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
       <c r="L24" s="2" t="s">
-        <v>214</v>
+        <v>38</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+      <c r="O24" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="S24" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="T24" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="U24" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="V24" s="2"/>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="E25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>251</v>
+      </c>
       <c r="G25" s="2"/>
-      <c r="H25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="L25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="L25" s="2" t="s">
+        <v>200</v>
+      </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
-      <c r="O25" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="E26" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="S25" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>81</v>
-      </c>
+      <c r="H26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="S26" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="E27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
       <c r="L27" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="P27" s="2"/>
-      <c r="Q27" s="2" t="s">
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="L28" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="E29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="L31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
         <v>59</v>
       </c>
-      <c r="D30" t="s">
-        <v>57</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="L30" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" t="s">
-        <v>61</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L31" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" t="s">
-        <v>66</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-    </row>
-    <row r="33" spans="5:24" x14ac:dyDescent="0.2">
-      <c r="E33" s="2"/>
+      <c r="C33" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>260</v>
+      </c>
       <c r="F33" s="2"/>
-      <c r="G33" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="G33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -2044,15 +2261,17 @@
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
-      <c r="T33" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34" spans="5:24" x14ac:dyDescent="0.2">
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
@@ -2060,263 +2279,377 @@
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
-      <c r="R34" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="R34" s="2"/>
       <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-    </row>
-    <row r="35" spans="5:24" x14ac:dyDescent="0.2">
+      <c r="T34" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
+      <c r="G35" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
-      <c r="N35" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
-      <c r="P35" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
+      <c r="R35" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
-    </row>
-    <row r="36" spans="5:24" x14ac:dyDescent="0.2">
-      <c r="E36" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+    </row>
+    <row r="36" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-      <c r="L36" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="L36" s="2"/>
       <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+      <c r="N36" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
+      <c r="P36" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
-      <c r="T36" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" spans="5:24" x14ac:dyDescent="0.2">
-      <c r="E38" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="5:24" x14ac:dyDescent="0.2">
-      <c r="E39" s="2" t="s">
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="E37" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="L37" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+    </row>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="E40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="L39" s="2" t="s">
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="L40" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
-      <c r="V39" s="2"/>
-      <c r="W39" s="2"/>
-      <c r="X39" s="2"/>
-    </row>
-    <row r="40" spans="5:24" x14ac:dyDescent="0.2">
-      <c r="E40" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="L40" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="S40" s="6"/>
-      <c r="T40" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="U40" s="16"/>
-      <c r="V40" s="14"/>
-      <c r="W40" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="X40" s="16"/>
-    </row>
-    <row r="41" spans="5:24" x14ac:dyDescent="0.2">
-      <c r="E41" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="N41" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
-      <c r="X41" s="2"/>
-    </row>
-    <row r="42" spans="5:24" x14ac:dyDescent="0.2">
-      <c r="E42" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2"/>
+      <c r="Z40" s="2"/>
+      <c r="AA40" s="2"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="E41" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="S41" s="6"/>
+      <c r="T41" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="U41" s="16"/>
+      <c r="V41" s="14"/>
+      <c r="W41" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="X41" s="16"/>
+      <c r="Y41" s="13"/>
+      <c r="Z41" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA41" s="13"/>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="E42" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+      <c r="G42" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="O42" s="2"/>
-      <c r="P42" s="2" t="s">
-        <v>213</v>
-      </c>
+      <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
+      <c r="R42" s="2" t="s">
+        <v>205</v>
+      </c>
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="X42" s="2"/>
-    </row>
-    <row r="43" spans="5:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA42" s="2"/>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
-      <c r="L43" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>211</v>
-      </c>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
+      <c r="P43" s="2" t="s">
+        <v>199</v>
+      </c>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
-      <c r="T43" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="U43" s="2" t="s">
-        <v>221</v>
-      </c>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
       <c r="V43" s="2"/>
       <c r="W43" s="2" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="X43" s="2"/>
-    </row>
-    <row r="44" spans="5:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="2"/>
+      <c r="Z43" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA43" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
+      <c r="L44" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>198</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
-      <c r="P44" s="2" t="s">
-        <v>215</v>
-      </c>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-      <c r="U44" s="2"/>
+      <c r="T44" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="U44" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="X44" s="2"/>
-    </row>
-    <row r="45" spans="5:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="2"/>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
-      <c r="L45" s="2" t="s">
-        <v>209</v>
-      </c>
+      <c r="L45" s="2"/>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
+      <c r="P45" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="Q45" s="2"/>
-      <c r="R45" s="2" t="s">
-        <v>220</v>
-      </c>
+      <c r="R45" s="2"/>
       <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
       <c r="U45" s="2"/>
-      <c r="V45" s="2"/>
-      <c r="W45" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="X45" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="46" spans="5:24" x14ac:dyDescent="0.2">
-      <c r="E46" s="2" t="s">
-        <v>227</v>
-      </c>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="2"/>
+      <c r="Z45" s="2"/>
+      <c r="AA45" s="2"/>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
-      <c r="L46" s="2"/>
+      <c r="L46" s="2" t="s">
+        <v>196</v>
+      </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
-      <c r="P46" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="Q46" s="2"/>
-      <c r="R46" s="2"/>
+      <c r="R46" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="S46" s="2"/>
-      <c r="T46" s="2" t="s">
-        <v>222</v>
-      </c>
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
       <c r="W46" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="X46" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="X46" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y46" s="2"/>
+      <c r="Z46" s="2"/>
+      <c r="AA46" s="2"/>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="E47" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="X47" s="2"/>
+      <c r="Y47" s="2"/>
+      <c r="Z47" s="2"/>
+      <c r="AA47" s="2"/>
+    </row>
+    <row r="50" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L50" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="51" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L51" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="52" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L52" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="53" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L53" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="M53" s="2"/>
+    </row>
+    <row r="54" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L54" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="M54" s="2"/>
+    </row>
+    <row r="55" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L55" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="M55" s="2"/>
+    </row>
+    <row r="56" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+    </row>
+    <row r="57" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+    </row>
+    <row r="58" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="W40:X40"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="T40:U40"/>
+  <mergeCells count="9">
+    <mergeCell ref="W41:X41"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S22:V22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2326,11 +2659,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BBD46D9-003B-4EEE-B7C1-0E67B61C230A}">
-  <dimension ref="A2:AE41"/>
+  <dimension ref="A2:AG41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J4" sqref="J4"/>
+      <pane xSplit="2" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2338,19 +2671,19 @@
     <col min="1" max="16384" width="12.625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C2" s="20" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="D2" s="20"/>
       <c r="E2" s="20"/>
       <c r="G2" s="19" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
       <c r="E3" s="20"/>
@@ -2358,9 +2691,9 @@
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C5" s="18" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -2372,7 +2705,7 @@
       <c r="K5" s="18"/>
       <c r="L5" s="18"/>
       <c r="M5" s="18" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="N5" s="18"/>
       <c r="O5" s="18"/>
@@ -2383,10 +2716,12 @@
       <c r="T5" s="18"/>
       <c r="U5" s="18"/>
       <c r="V5" s="18" t="s">
-        <v>137</v>
+        <v>25</v>
       </c>
       <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
+      <c r="X5" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="Y5" s="18"/>
       <c r="Z5" s="18"/>
       <c r="AA5" s="18"/>
@@ -2394,251 +2729,269 @@
       <c r="AC5" s="18"/>
       <c r="AD5" s="18"/>
       <c r="AE5" s="18"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF5" s="18"/>
+      <c r="AG5" s="18"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C6" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M6" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="N6" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="O6" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="P6" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q6" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="R6" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="S6" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="T6" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="U6" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="V6" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="X6" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="Y6" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="Z6" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA6" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB6" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="AC6" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD6" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="O6" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="P6" s="5" t="s">
+      <c r="AE6" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="Q6" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="S6" s="4" t="s">
+      <c r="AF6" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="T6" s="4" t="s">
+      <c r="AG6" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="U6" s="5" t="s">
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="B7" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC7" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD7" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF7" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG7" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="V6" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="W6" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="X6" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y6" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z6" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA6" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="AB6" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC6" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="AD6" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE6" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B7" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="V7" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="W7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="X7" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y7" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z7" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB7" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC7" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD7" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="AE7" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B8" s="19"/>
       <c r="C8" s="4" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="O8" s="4"/>
       <c r="P8" s="4" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="T8" s="4"/>
       <c r="U8" s="4" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
+      <c r="W8" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
-      <c r="Z8" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA8" s="4" t="s">
-        <v>109</v>
-      </c>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
       <c r="AB8" s="4" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AC8" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD8" s="4"/>
+        <v>96</v>
+      </c>
+      <c r="AD8" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="AE8" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B9" s="19"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -2652,7 +3005,7 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
@@ -2671,146 +3024,158 @@
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
       <c r="AE9" s="4"/>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B10" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="M10" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="N10" s="4" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="V10" s="4" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="W10" s="4" t="s">
-        <v>112</v>
+        <v>225</v>
       </c>
       <c r="X10" s="4" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="Y10" s="4" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="Z10" s="4" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="AA10" s="4" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="AB10" s="4" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="AC10" s="4" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="AD10" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="AE10" s="4"/>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+      <c r="AE10" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF10" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG10" s="4"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B11" s="19"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
+        <v>106</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="W11" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
@@ -2819,8 +3184,10 @@
       <c r="AC11" s="4"/>
       <c r="AD11" s="4"/>
       <c r="AE11" s="4"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B12" s="19"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -2835,17 +3202,19 @@
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
       <c r="T12" s="4" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
+      <c r="V12" s="4" t="s">
+        <v>222</v>
+      </c>
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
@@ -2855,8 +3224,10 @@
       <c r="AC12" s="4"/>
       <c r="AD12" s="4"/>
       <c r="AE12" s="4"/>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B13" s="19"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -2887,13 +3258,15 @@
       <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
       <c r="AE13" s="4"/>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C14" s="3">
         <v>0.5</v>
@@ -2943,10 +3316,16 @@
       <c r="T14" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="C15" s="3">
         <v>1.3</v>
@@ -3005,10 +3384,16 @@
       <c r="U15" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="C16" s="3">
         <v>1.3</v>
@@ -3052,11 +3437,8 @@
       <c r="U16" s="3">
         <v>1.5</v>
       </c>
-      <c r="Z16" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="AA16" s="3">
-        <v>1.5</v>
+      <c r="V16" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="AB16" s="3">
         <v>1.5</v>
@@ -3064,10 +3446,16 @@
       <c r="AC16" s="3">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="AE16" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
@@ -3078,10 +3466,13 @@
       <c r="U17" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="E18" s="3">
         <v>1</v>
@@ -3093,9 +3484,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="E19" s="3">
         <v>0.75</v>
@@ -3107,12 +3498,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="C21" s="3">
         <v>1.1499999999999999</v>
@@ -3148,471 +3539,514 @@
         <v>1.25</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>159</v>
+        <v>227</v>
       </c>
       <c r="W21" s="3" t="s">
-        <v>159</v>
+        <v>230</v>
       </c>
       <c r="X21" s="3" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="Y21" s="3" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="Z21" s="3" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="AA21" s="3" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="AB21" s="3" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="AC21" s="3" t="s">
-        <v>161</v>
+        <v>148</v>
+      </c>
+      <c r="AD21" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="AE21" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+      <c r="AG21" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C22" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z22" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="F23" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="AF23" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="AG23" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="C24" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF24" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG24" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="X22" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="Y22" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="F23" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="T23" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="U23" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD23" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="AE23" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="C24" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD24" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="AE24" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C25" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="C26" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="P26" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q26" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="R26" s="11" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="C26" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="L26" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="M26" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="N26" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="O26" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="P26" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q26" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="R26" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C27" s="4" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="Q27" s="4" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="R27" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="C28" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="R28" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="C29" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="R29" s="4" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="C28" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="L28" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="M28" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="N28" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="O28" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="P28" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q28" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="R28" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="C29" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="N29" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="O29" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="P29" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q29" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="R29" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C30" s="4" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C32" s="3" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C33" s="8" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>115</v>
+        <v>102</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C34" s="4" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>192</v>
+        <v>179</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C35" s="4" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>196</v>
+        <v>183</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C36" s="4" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>197</v>
+        <v>184</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C37" s="4" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="E37" s="4"/>
+      <c r="F37" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C39" s="3" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C40" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="G40" s="11" t="s">
         <v>106</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C41" s="4" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="V5:AE5"/>
+  <mergeCells count="8">
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="C2:E3"/>
     <mergeCell ref="C5:L5"/>
     <mergeCell ref="M5:U5"/>
     <mergeCell ref="G2:I3"/>
+    <mergeCell ref="X5:AG5"/>
+    <mergeCell ref="V5:W5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3632,35 +4066,35 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -3668,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -3676,7 +4110,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
